--- a/Neha01.xlsx
+++ b/Neha01.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -141,9 +141,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate that the Account is edited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TC_MSERP_TransferModel_01</x:t>
   </x:si>
   <x:si>
     <x:t>TransferModel_01</x:t>
@@ -1199,7 +1196,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.840625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
@@ -1247,21 +1244,21 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>43</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s"/>
       <x:c r="E2" s="0" t="s"/>
       <x:c r="F2" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="H2" s="0" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>46</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
@@ -1273,13 +1270,13 @@
       <x:c r="D3" s="0" t="s"/>
       <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="H3" s="0" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
@@ -1291,13 +1288,13 @@
       <x:c r="D4" s="0" t="s"/>
       <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>52</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
@@ -1309,13 +1306,13 @@
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>55</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
@@ -1327,13 +1324,13 @@
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>58</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -1345,13 +1342,13 @@
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>61</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -1363,13 +1360,13 @@
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
+      <x:c r="H8" s="0" t="s">
         <x:v>63</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>64</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -1381,13 +1378,13 @@
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -1399,13 +1396,13 @@
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="G10" s="0" t="s">
+      <x:c r="H10" s="0" t="s">
         <x:v>68</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>69</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -1417,13 +1414,13 @@
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="G11" s="0" t="s">
+      <x:c r="H11" s="0" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>72</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -1435,13 +1432,13 @@
       <x:c r="D12" s="0" t="s"/>
       <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="G12" s="0" t="s">
+      <x:c r="H12" s="0" t="s">
         <x:v>74</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>75</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -1453,13 +1450,13 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="G13" s="0" t="s">
+      <x:c r="H13" s="0" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>78</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -1471,13 +1468,13 @@
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="G14" s="0" t="s">
+      <x:c r="H14" s="0" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>81</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -1489,13 +1486,13 @@
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -1507,37 +1504,37 @@
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="G16" s="0" t="s">
+      <x:c r="H16" s="0" t="s">
         <x:v>85</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>86</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
     </x:row>
     <x:row r="17" spans="1:10">
       <x:c r="A17" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>43</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="G17" s="0" t="s">
+      <x:c r="H17" s="0" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>46</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -1549,13 +1546,13 @@
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="G18" s="0" t="s">
+      <x:c r="H18" s="0" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1567,13 +1564,13 @@
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="s">
+      <x:c r="H19" s="0" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>52</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1585,13 +1582,13 @@
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="0" t="s"/>
       <x:c r="F20" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="G20" s="0" t="s">
+      <x:c r="H20" s="0" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>55</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
@@ -1603,13 +1600,13 @@
       <x:c r="D21" s="0" t="s"/>
       <x:c r="E21" s="0" t="s"/>
       <x:c r="F21" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="G21" s="0" t="s">
+      <x:c r="H21" s="0" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>58</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
@@ -1621,13 +1618,13 @@
       <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s"/>
       <x:c r="F22" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="G22" s="0" t="s">
+      <x:c r="H22" s="0" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>61</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
@@ -1639,13 +1636,13 @@
       <x:c r="D23" s="0" t="s"/>
       <x:c r="E23" s="0" t="s"/>
       <x:c r="F23" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="G23" s="0" t="s">
+      <x:c r="H23" s="0" t="s">
         <x:v>63</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>64</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
@@ -1657,13 +1654,13 @@
       <x:c r="D24" s="0" t="s"/>
       <x:c r="E24" s="0" t="s"/>
       <x:c r="F24" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
@@ -1675,13 +1672,13 @@
       <x:c r="D25" s="0" t="s"/>
       <x:c r="E25" s="0" t="s"/>
       <x:c r="F25" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
@@ -1693,13 +1690,13 @@
       <x:c r="D26" s="0" t="s"/>
       <x:c r="E26" s="0" t="s"/>
       <x:c r="F26" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s">
-        <x:v>89</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s"/>
       <x:c r="J26" s="0" t="s"/>
@@ -1711,13 +1708,13 @@
       <x:c r="D27" s="0" t="s"/>
       <x:c r="E27" s="0" t="s"/>
       <x:c r="F27" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
         <x:v>90</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>91</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s"/>
       <x:c r="J27" s="0" t="s"/>
@@ -1729,13 +1726,13 @@
       <x:c r="D28" s="0" t="s"/>
       <x:c r="E28" s="0" t="s"/>
       <x:c r="F28" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
@@ -1747,13 +1744,13 @@
       <x:c r="D29" s="0" t="s"/>
       <x:c r="E29" s="0" t="s"/>
       <x:c r="F29" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>95</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s"/>
       <x:c r="J29" s="0" t="s"/>
@@ -1765,13 +1762,13 @@
       <x:c r="D30" s="0" t="s"/>
       <x:c r="E30" s="0" t="s"/>
       <x:c r="F30" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
         <x:v>96</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>97</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s"/>
       <x:c r="J30" s="0" t="s"/>
@@ -1783,13 +1780,13 @@
       <x:c r="D31" s="0" t="s"/>
       <x:c r="E31" s="0" t="s"/>
       <x:c r="F31" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s"/>
       <x:c r="J31" s="0" t="s"/>
@@ -1801,13 +1798,13 @@
       <x:c r="D32" s="0" t="s"/>
       <x:c r="E32" s="0" t="s"/>
       <x:c r="F32" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
         <x:v>99</x:v>
-      </x:c>
-      <x:c r="G32" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="H32" s="0" t="s">
-        <x:v>100</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
